--- a/UserStories.xlsx
+++ b/UserStories.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Mahmoud\Final Jumper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Mahmoud\Jumper\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="UserStories" sheetId="1" r:id="rId1"/>
+    <sheet name="UIComponents" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">UserStories!$C$1:$C$35</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="153">
   <si>
     <t>FR #</t>
   </si>
@@ -375,6 +376,164 @@
   </si>
   <si>
     <t>can NOT call the company</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type </t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activity </t>
+  </si>
+  <si>
+    <t>Entrance of the app</t>
+  </si>
+  <si>
+    <t>App splash</t>
+  </si>
+  <si>
+    <t>Already a Jumper</t>
+  </si>
+  <si>
+    <t>Button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skip </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Log in with Facebook account </t>
+  </si>
+  <si>
+    <t>Google +</t>
+  </si>
+  <si>
+    <t>Log in with Google+ account</t>
+  </si>
+  <si>
+    <t>Dialog</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Take email and password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Home </t>
+  </si>
+  <si>
+    <t>Side menu</t>
+  </si>
+  <si>
+    <t>notification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">navifation bar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">go direct to the home screen </t>
+  </si>
+  <si>
+    <t>open signup dialog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">open login dialog </t>
+  </si>
+  <si>
+    <t>notification list</t>
+  </si>
+  <si>
+    <t>Advanced Seach</t>
+  </si>
+  <si>
+    <t>Choose the budget,place and duration</t>
+  </si>
+  <si>
+    <t>Duration dialog</t>
+  </si>
+  <si>
+    <t>specify the duration of the trip</t>
+  </si>
+  <si>
+    <t>specify the budget of the trip</t>
+  </si>
+  <si>
+    <t>Budget dialog</t>
+  </si>
+  <si>
+    <t>Place dialog</t>
+  </si>
+  <si>
+    <t>specify the place of the trip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wishlist </t>
+  </si>
+  <si>
+    <t>list of wishlist trips</t>
+  </si>
+  <si>
+    <t>invite friends</t>
+  </si>
+  <si>
+    <t>list of friends of facebook or google+</t>
+  </si>
+  <si>
+    <t>setting</t>
+  </si>
+  <si>
+    <t>edit profile</t>
+  </si>
+  <si>
+    <t>change user name or password</t>
+  </si>
+  <si>
+    <t>Trip info</t>
+  </si>
+  <si>
+    <t>decription of the program of the trip.
+Button to check the host company.</t>
+  </si>
+  <si>
+    <t>Take username
+email and passowrd to register new user</t>
+  </si>
+  <si>
+    <t>Edit profile.
+Settings.
+Logout.
+Whishlist.
+Invite friends</t>
+  </si>
+  <si>
+    <t>Trips list.
+Side menu.
+Search icon. 
+Notification icon.</t>
+  </si>
+  <si>
+    <t>Edit profile.
+Connect with Facebook.
+Connet with google+.
+Help. 
+About us.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Company info</t>
+  </si>
+  <si>
+    <t xml:space="preserve">company information.
+Call the company.
+Show company address on the map.
+Visit company website.
+List of trips for the same company. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visit website, Facebook page, Instagram </t>
   </si>
 </sst>
 </file>
@@ -384,7 +543,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -428,8 +587,16 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -440,6 +607,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB8CCE4"/>
         <bgColor rgb="FFB8CCE4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -470,7 +643,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -504,6 +677,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -786,7 +960,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="J30" sqref="J30"/>
@@ -1666,4 +1840,290 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>123</v>
+      </c>
+      <c r="B13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>129</v>
+      </c>
+      <c r="B14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>131</v>
+      </c>
+      <c r="B15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>135</v>
+      </c>
+      <c r="B17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>137</v>
+      </c>
+      <c r="B18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>139</v>
+      </c>
+      <c r="B19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>141</v>
+      </c>
+      <c r="B20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>142</v>
+      </c>
+      <c r="B21" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>144</v>
+      </c>
+      <c r="B22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>150</v>
+      </c>
+      <c r="B23" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>